--- a/実装/レビュー議事録_第2反復_受け入れ.xlsx
+++ b/実装/レビュー議事録_第2反復_受け入れ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22926"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020667B3-5DB5-4EF1-8B56-B3CA40BBD6CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{020667B3-5DB5-4EF1-8B56-B3CA40BBD6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{614F9DA1-9C52-4F68-B041-6E02578B5BF3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -52,6 +54,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>反復2 第１回受け入れレビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/11 (木曜日)
+12:00-12:15</t>
+    <rPh sb="12" eb="15">
+      <t>モクヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teams Review Room C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>出席者</t>
     <rPh sb="0" eb="3">
       <t>シュッセキシャ</t>
@@ -59,6 +92,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>赤坂様、高見澤様、城、中根、武井、沼崎、韓</t>
+    <rPh sb="4" eb="6">
+      <t>タカミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナカネ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヌマザキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>レビューア</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -70,6 +128,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>赤坂様、高見澤様</t>
+    <rPh sb="0" eb="3">
+      <t>アカサカサマ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>タカミザワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>韓</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
@@ -87,6 +165,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>受け入れ</t>
+  </si>
+  <si>
     <t>レビュー対象</t>
     <rPh sb="4" eb="6">
       <t>タイショウ</t>
@@ -111,6 +192,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>システム仕様書</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>城、中根、武井、沼崎、韓</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナカネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヌマザキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>総指摘件数</t>
     <rPh sb="0" eb="1">
       <t>ソウ</t>
@@ -183,6 +294,176 @@
       <t>キゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
+  </si>
+  <si>
+    <t>口コミがない時に口コミを削除するを選択したらどうなるのか。</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見澤様</t>
+  </si>
+  <si>
+    <t>自分の口コミ一覧を表示します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口コミ一覧を表示のテストをもっと細かくしてください。</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムでは動きが確認できましたが、テスト仕様書には後ほど追加します。</t>
+  </si>
+  <si>
+    <t>指摘</t>
+  </si>
+  <si>
+    <t>テストケースをもっと細かく書いた方が良い。</t>
+    <rPh sb="10" eb="11">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回からそのようにいたします。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>UIのソースコードは大きりがちだが、メソッドで分けている部分が良い。もっと工夫出来る所もあると思う。</t>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤坂様</t>
+    <rPh sb="0" eb="3">
+      <t>アカサカサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありがとうございます。次回の反復で考えてみたいと思います。</t>
+    <rPh sb="11" eb="13">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードの残っているメモは消した方が良い。</t>
+    <rPh sb="4" eb="5">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後ほど削除いたします。</t>
+    <rPh sb="0" eb="1">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>反復1 第2回レビュー</t>
@@ -263,9 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指摘</t>
-  </si>
-  <si>
     <t>プロセス「2.2発注する」がデータ「発注商品」を加工していない</t>
   </si>
   <si>
@@ -280,316 +558,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Teams Review Room C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>韓</t>
-    <rPh sb="0" eb="1">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受け入れ</t>
-  </si>
-  <si>
-    <t>反復2 第１回受け入れレビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/06/11 (木曜日)
-12:00-12:15</t>
-    <rPh sb="12" eb="15">
-      <t>モクヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受け入れの合否判定レビュー：条件付き合格</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゴウヒ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ジョウケンツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゴウカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤坂様、高見澤様、城、中根、武井、沼崎、韓</t>
-    <rPh sb="4" eb="6">
-      <t>タカミ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナカネ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タケイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヌマザキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤坂様、高見澤様</t>
-    <rPh sb="0" eb="3">
-      <t>アカサカサマ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>タカミザワ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>システム仕様書</t>
-    <rPh sb="4" eb="7">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>城、中根、武井、沼崎、韓</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナカネ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タケイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヌマザキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソースコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高見澤様</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>赤坂様</t>
-    <rPh sb="0" eb="3">
-      <t>アカサカサマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コードの残っているメモは消した方が良い。</t>
-    <rPh sb="4" eb="5">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストケースをもっと細かく書いた方が良い。</t>
-    <rPh sb="10" eb="11">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>口コミ一覧を表示のテストをもっと細かくしてください。</t>
-    <rPh sb="0" eb="1">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>口コミがない時に口コミを削除するを選択したらどうなるのか。</t>
-    <rPh sb="0" eb="1">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次回からそのようにいたします。</t>
-    <rPh sb="0" eb="2">
-      <t>ジカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧が表示されます。</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分の口コミ一覧を表示します。</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIのソースコードは大きりがちだが、メソッドで分けている部分が良い。もっと工夫出来る所もあると思う。</t>
-    <rPh sb="10" eb="11">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>クフウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>トコロ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ありがとうございます。次回の反復で考えてみたいと思います。</t>
-    <rPh sb="11" eb="13">
-      <t>ジカイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後ほど削除いたします。</t>
-    <rPh sb="0" eb="1">
-      <t>ノチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -919,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -969,17 +945,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1479,7 +1452,7 @@
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1487,173 +1460,173 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="32"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="31"/>
       <c r="C10" s="13" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D10" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="32"/>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="31"/>
       <c r="C11" s="13" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
       <c r="C20" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
@@ -1703,10 +1676,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
@@ -1716,145 +1689,145 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="G4" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G6" s="9">
         <v>43993</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1863,7 +1836,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1872,7 +1845,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1881,7 +1854,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1890,7 +1863,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1899,7 +1872,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1908,7 +1881,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1917,7 +1890,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1926,7 +1899,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1935,7 +1908,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1944,7 +1917,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1953,7 +1926,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1962,7 +1935,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1971,7 +1944,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1980,7 +1953,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1989,7 +1962,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1998,7 +1971,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2030,7 +2003,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -2038,180 +2011,180 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33"/>
+        <v>51</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="32"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="31"/>
       <c r="C10" s="13" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="32"/>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="31"/>
       <c r="C11" s="13" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="32"/>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="31"/>
       <c r="C12" s="13" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
       <c r="C20" s="15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
@@ -2264,7 +2237,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -2274,53 +2247,53 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="59.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G2" s="9">
         <v>40686</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2329,7 +2302,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2338,7 +2311,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2347,7 +2320,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2356,7 +2329,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2365,7 +2338,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2374,7 +2347,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2383,7 +2356,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2392,7 +2365,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2401,7 +2374,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2410,7 +2383,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2419,7 +2392,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2428,7 +2401,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2437,7 +2410,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2446,7 +2419,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2455,7 +2428,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2464,7 +2437,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2473,7 +2446,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2482,7 +2455,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2491,7 +2464,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2500,7 +2473,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2525,12 +2498,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2714,7 +2681,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2723,23 +2690,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2757,10 +2714,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>